--- a/data/trans_camb/P16A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.02727085010907904</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.277893618941668</v>
+        <v>3.277893618941663</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4.672665705081856</v>
@@ -664,7 +664,7 @@
         <v>2.102237089324092</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.496603170310043</v>
+        <v>3.496603170310038</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2491599512118691</v>
+        <v>-0.1341088711803793</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2932006516836156</v>
+        <v>0.1319622102914187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8135292629157768</v>
+        <v>-0.9392810428039442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.1286788159134041</v>
+        <v>-0.2372648169500764</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.809197335046754</v>
+        <v>-5.107293373840358</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.32004566635687</v>
+        <v>-3.5155419908411</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.408824644908197</v>
+        <v>1.430859943410096</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.242295671085121</v>
+        <v>-1.067632230563642</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.4956868343282886</v>
+        <v>-0.3755998725215122</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.947336074788819</v>
+        <v>8.07075319601207</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.214124043951674</v>
+        <v>8.868093116536613</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.62873108220371</v>
+        <v>10.32211423690643</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.51512910442488</v>
+        <v>10.40508833571126</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.523168721763509</v>
+        <v>4.641258617358812</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.684153244242198</v>
+        <v>10.16474501796972</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.930577417133156</v>
+        <v>8.050367993092697</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.304104899680066</v>
+        <v>5.081815601044147</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.158315072550097</v>
+        <v>8.291214334373201</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.001570085140829744</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1887206318737951</v>
+        <v>0.1887206318737948</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3765481702992944</v>
@@ -769,7 +769,7 @@
         <v>0.1694094077090486</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2817748174475695</v>
+        <v>0.2817748174475691</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.01066940416452181</v>
+        <v>-0.0182486310390738</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.02709731626819144</v>
+        <v>0.006552228103175739</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1121426896813058</v>
+        <v>-0.1310224330571037</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01506641738766318</v>
+        <v>-0.01502994343492244</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2475324281298746</v>
+        <v>-0.2596383900544409</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1849084781259236</v>
+        <v>-0.1885944967274859</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09717634610619537</v>
+        <v>0.1108693531243396</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08875156174635812</v>
+        <v>-0.07210983352875372</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.03620116718736347</v>
+        <v>-0.02922593567326106</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.283373410198137</v>
+        <v>1.275497904167761</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.321955107682038</v>
+        <v>1.400017623595899</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.613690173664325</v>
+        <v>1.653560886269117</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6885355019175375</v>
+        <v>0.6970529604073786</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3042937286545648</v>
+        <v>0.3084050980177558</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6094321708156606</v>
+        <v>0.6467195516097025</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7177218118872917</v>
+        <v>0.7504777046965738</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4668688396250697</v>
+        <v>0.4766822224649898</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7554771657996687</v>
+        <v>0.7424916492046408</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>8.413470393893915</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8.144067499441517</v>
+        <v>8.144067499441521</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.709199787028943</v>
+        <v>2.726177719601592</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.327355659864557</v>
+        <v>4.203138972044911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.876793083229155</v>
+        <v>5.097476198750265</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.187525998394071</v>
+        <v>5.254166491865699</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.864044233598905</v>
+        <v>3.741548371550228</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.110716599094725</v>
+        <v>1.359042670234939</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.895882112391568</v>
+        <v>5.070036239833484</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>5.598629477295682</v>
+        <v>5.631226721335125</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.749107532623228</v>
+        <v>4.702225996805814</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.673865467724847</v>
+        <v>9.806215191552818</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.74416672627308</v>
+        <v>11.6929868133303</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.32050868473697</v>
+        <v>15.30280345816368</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.09830234957475</v>
+        <v>14.55546482368183</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.05005993452341</v>
+        <v>12.67141485252424</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.56616893218062</v>
+        <v>10.96809760151712</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.43059103073091</v>
+        <v>10.58591606098753</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.48962396187303</v>
+        <v>11.36749802022148</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.11430702056896</v>
+        <v>11.68287054969023</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.7283796734156713</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.7050566469959331</v>
+        <v>0.7050566469959333</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.273050738245015</v>
+        <v>0.2368662080343481</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4232735586555709</v>
+        <v>0.4083333367759036</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4909737190736179</v>
+        <v>0.53871709204625</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3152027136950709</v>
+        <v>0.3139966867649416</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.222236976981156</v>
+        <v>0.2227832283076339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06890387731675693</v>
+        <v>0.08526944477660185</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3798363820951209</v>
+        <v>0.3887134561791483</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4270147804168825</v>
+        <v>0.4265864974776737</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3666239401165839</v>
+        <v>0.3583512720274461</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.283601205275156</v>
+        <v>1.305478855850588</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.588902784855415</v>
+        <v>1.526418531378882</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.030706627531873</v>
+        <v>2.01924668098277</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.119109553298228</v>
+        <v>1.134111900550634</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.03435561826999</v>
+        <v>0.9701316212061895</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8071776542123212</v>
+        <v>0.869513156256751</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.013146438171007</v>
+        <v>1.029141100694172</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.108549423316196</v>
+        <v>1.097559024822289</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.157924227411479</v>
+        <v>1.089429168501976</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>3.214045290703194</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.852761367527732</v>
+        <v>9.852761367527737</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>5.615859927053949</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.858081683477662</v>
+        <v>-3.020535094360097</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1751094531012754</v>
+        <v>-0.2557771022853227</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3843325911929779</v>
+        <v>0.7042060168618168</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.514471271156838</v>
+        <v>5.214330224946593</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.123428310631415</v>
+        <v>-1.141449613900731</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.814050536901289</v>
+        <v>5.273673053497315</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.692602346343568</v>
+        <v>2.578835649590132</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3118695807969843</v>
+        <v>-0.054966306755069</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.788161832141972</v>
+        <v>4.041565208903354</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.035416639368334</v>
+        <v>4.63978470894395</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.873634314082036</v>
+        <v>7.741263314036921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.016342940400985</v>
+        <v>8.6457533541566</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.00844966697107</v>
+        <v>14.64833596030152</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.647789556152755</v>
+        <v>7.703369084881427</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.343637597967</v>
+        <v>14.56539377638801</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.883359046260097</v>
+        <v>8.501713045773956</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.594687685784197</v>
+        <v>6.128488887194496</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.99350307384168</v>
+        <v>9.834071507343452</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1561740689821836</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4787567362314955</v>
+        <v>0.4787567362314958</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.326289225139951</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1873646270885641</v>
+        <v>-0.1900433319485037</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.02023557002848131</v>
+        <v>-0.01733903891550862</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.02584290501116746</v>
+        <v>0.03020028517924405</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2450349148128129</v>
+        <v>0.2261939973026286</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.04803512352192982</v>
+        <v>-0.05655473702504087</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.248952461888384</v>
+        <v>0.2306455036775605</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1434759129759524</v>
+        <v>0.1383090631576342</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.01699772127435253</v>
+        <v>-0.004200404803695133</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1971487149167431</v>
+        <v>0.2184778022300677</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4375347963817864</v>
+        <v>0.3759122578327656</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6658081417722687</v>
+        <v>0.6687266013527705</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7589336543544376</v>
+        <v>0.7353245442962386</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8307566738352907</v>
+        <v>0.8030280258043827</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4286003846489542</v>
+        <v>0.422543883342495</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7660860798281979</v>
+        <v>0.8175292115985764</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5599264095346312</v>
+        <v>0.5521797974929213</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4251740369994019</v>
+        <v>0.3956403941119632</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.628478316424698</v>
+        <v>0.6395126933475</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.733769058710632</v>
+        <v>-2.468288466016633</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5649391056452957</v>
+        <v>-0.02047169625354541</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.676207121621955</v>
+        <v>5.585727746583093</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.381298296759384</v>
+        <v>2.519982681084076</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04584059149217591</v>
+        <v>-0.1193793241223726</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.805022999805999</v>
+        <v>8.968460975741227</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.097186890965124</v>
+        <v>1.424539836109125</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.332486481836167</v>
+        <v>1.3656596219632</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.699321044880156</v>
+        <v>8.907992451318126</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.879029333828869</v>
+        <v>5.941683292791914</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.055319540998958</v>
+        <v>9.109839877879475</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.1798460762203</v>
+        <v>14.71056948806133</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.39515522879161</v>
+        <v>13.3336076654274</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.66762250331886</v>
+        <v>11.10120765585523</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.15685938545084</v>
+        <v>17.95558487985924</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.456821119931957</v>
+        <v>8.633503266423553</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.25730450442653</v>
+        <v>8.56268601975315</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>15.40088183267326</v>
+        <v>15.30586326654063</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3008433866278917</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6849255503213424</v>
+        <v>0.6849255503213421</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3353150504117948</v>
@@ -1411,7 +1411,7 @@
         <v>0.252888617935755</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6250547539336625</v>
+        <v>0.6250547539336628</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1650975889890161</v>
+        <v>-0.1467879309736153</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03663069459409626</v>
+        <v>-0.01042386597950851</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3064981549209407</v>
+        <v>0.3132063650304819</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08799707369332729</v>
+        <v>0.09345685107885159</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.001718454380791549</v>
+        <v>-0.007458328753843555</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3266484343275785</v>
+        <v>0.3252587360037231</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04786568192303572</v>
+        <v>0.06541473397130824</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.05857630381984473</v>
+        <v>0.06113206489546667</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3990137756901605</v>
+        <v>0.4189848295454985</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4711676364570825</v>
+        <v>0.4788007723563175</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7240004242858974</v>
+        <v>0.7317397443842235</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.187389322206961</v>
+        <v>1.184443370701725</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6076316762200785</v>
+        <v>0.6254640213114098</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5126866228221523</v>
+        <v>0.5291360536376317</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.854397272737073</v>
+        <v>0.8662107930985782</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4807605392044622</v>
+        <v>0.4925766433575756</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4647783849733587</v>
+        <v>0.4858718583729849</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8827004397035164</v>
+        <v>0.8723704874398898</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.928254041822631</v>
+        <v>-5.801554612487046</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.841253144912148</v>
+        <v>-5.511843321842058</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.384871482594908</v>
+        <v>2.116300098015071</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5472698410414371</v>
+        <v>0.7606215657377031</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.607572400196853</v>
+        <v>4.437832126691008</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>9.88149870893675</v>
+        <v>9.405883088510084</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.167222351948187</v>
+        <v>-0.6760435235965047</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.268524184118071</v>
+        <v>1.058313422880854</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>7.371845157979207</v>
+        <v>7.796708984227455</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.254545051005032</v>
+        <v>6.419202552044567</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.292140506206224</v>
+        <v>6.765508964466626</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13.30593681935734</v>
+        <v>13.40910864390926</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13.89020891329457</v>
+        <v>14.3773084366833</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>16.60347799425054</v>
+        <v>17.10749968914028</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>20.6769003869819</v>
+        <v>20.59475318715741</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.717302531109723</v>
+        <v>7.88799196414801</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.546916277933153</v>
+        <v>10.50400199651743</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.13613083742233</v>
+        <v>14.99855877337004</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2300833271643462</v>
+        <v>-0.2402073323296172</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1949854893091479</v>
+        <v>-0.2226551217303191</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.08872131173105886</v>
+        <v>0.07750247318196715</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.01457197172711372</v>
+        <v>0.01455838163767821</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1367277351928865</v>
+        <v>0.143508972818959</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2910382679562491</v>
+        <v>0.2867643099586838</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.04224534854185206</v>
+        <v>-0.02470831479819096</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.04222585817068622</v>
+        <v>0.03504612920189444</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2549141566798686</v>
+        <v>0.2736136834519187</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3557633796523149</v>
+        <v>0.3236847371748371</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3369445220579504</v>
+        <v>0.3546980745775449</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7077658723451486</v>
+        <v>0.7216908406194452</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5462478709191375</v>
+        <v>0.5531673664569335</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6439965009493946</v>
+        <v>0.695247888245995</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8313763514317382</v>
+        <v>0.8167975706404964</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3263721220602919</v>
+        <v>0.3432299961457366</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3961891980515563</v>
+        <v>0.4394660471758727</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6383632868762893</v>
+        <v>0.6403050347403061</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>10.70858498136931</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>20.30589227189159</v>
+        <v>20.30589227189157</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>11.76767350996132</v>
@@ -1734,7 +1734,7 @@
         <v>6.132858103246858</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>15.21214890259429</v>
+        <v>15.2121489025943</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.361646450517645</v>
+        <v>2.965449336879932</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.269338345832485</v>
+        <v>-4.626175499556788</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4.310608836776597</v>
+        <v>4.877010849742144</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6.039379336888633</v>
+        <v>5.799039015369305</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>3.926098777457085</v>
+        <v>3.981173132257709</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>14.45129512948863</v>
+        <v>14.29224501462262</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.523221442086633</v>
+        <v>6.600602396542388</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.535551858222443</v>
+        <v>0.9348097335441662</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>10.81054224795939</v>
+        <v>10.98426051873443</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>17.05283403206437</v>
+        <v>16.23327984323324</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.643256860831471</v>
+        <v>7.471958119282244</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16.00735826236691</v>
+        <v>15.86619360250267</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20.62217761109098</v>
+        <v>19.78958911647885</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>17.9964549145951</v>
+        <v>17.72332177889841</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>25.98846792769303</v>
+        <v>26.61423247937109</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>16.48698590167679</v>
+        <v>16.47043482646834</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>11.09697651711527</v>
+        <v>10.59151950979927</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>19.42511912981198</v>
+        <v>19.116298059615</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.3309678433248693</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6275896753593045</v>
+        <v>0.6275896753593038</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4688009126894583</v>
@@ -1839,7 +1839,7 @@
         <v>0.2443209759145092</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.6060220215548439</v>
+        <v>0.6060220215548443</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.154435594158722</v>
+        <v>0.1472227074012</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2307097173521901</v>
+        <v>-0.2416122672365473</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.1971232828884283</v>
+        <v>0.2348398532938842</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1540678107653645</v>
+        <v>0.1665435975836272</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1092526780965716</v>
+        <v>0.1127325276858615</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3834323194662509</v>
+        <v>0.389191434593022</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2392566224530346</v>
+        <v>0.2363848708047898</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.05702769865867316</v>
+        <v>0.03484938280359145</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.3904366101474452</v>
+        <v>0.4028246951517868</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.224272904670763</v>
+        <v>1.191869097513478</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5542275982005607</v>
+        <v>0.5195696794891461</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.179705287006701</v>
+        <v>1.186197616863416</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.7035506214393513</v>
+        <v>0.6772045324269297</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6276655151518221</v>
+        <v>0.6206202980958477</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9252631531139439</v>
+        <v>0.9493859004514433</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7484775252009773</v>
+        <v>0.7208030343389069</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4913053909045104</v>
+        <v>0.4613475046896947</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.8649918472391305</v>
+        <v>0.8632339774324895</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>6.748843285784595</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>20.03805819859477</v>
+        <v>20.03805819859475</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.042662819633332</v>
+        <v>-3.467875858607974</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.226684423968978</v>
+        <v>-1.281698576853865</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.400295860052426</v>
+        <v>6.446216982825616</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4.115498235106471</v>
+        <v>3.372201509048382</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.5472269614008333</v>
+        <v>-0.5261548856005789</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>18.4840996248475</v>
+        <v>17.89451254173692</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>3.161622070513184</v>
+        <v>3.037301116672807</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.7719724779218329</v>
+        <v>1.175178999008437</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>14.90007226918139</v>
+        <v>14.64495319912092</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>13.66089505925133</v>
+        <v>13.54180798413341</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>13.20918874760429</v>
+        <v>14.11103362123909</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>20.56689648457088</v>
+        <v>21.33829824486026</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>19.25063577128888</v>
+        <v>18.28405679504403</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>15.17588356710483</v>
+        <v>15.46226004783572</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>31.4755924243357</v>
+        <v>30.87430863753511</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>14.37361003798419</v>
+        <v>14.67527386112821</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>12.72616872930672</v>
+        <v>12.64221386473738</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>25.16738457829898</v>
+        <v>24.78921350924989</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.188538867029852</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.5597926385694824</v>
+        <v>0.559792638569482</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1018503275929702</v>
+        <v>-0.1154018365342133</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.07760004509171151</v>
+        <v>-0.04161410566885571</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2050489996467852</v>
+        <v>0.2075938621967347</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.09024904410317879</v>
+        <v>0.0706595872716644</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.01227341068212402</v>
+        <v>-0.0128605120311071</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3975712342382186</v>
+        <v>0.377673997796405</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07843067925544527</v>
+        <v>0.07650789926263313</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.02103407380513262</v>
+        <v>0.03208930951181915</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3779814584818261</v>
+        <v>0.3641142062764832</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6271831096288683</v>
+        <v>0.6043673546662194</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6015728253110979</v>
+        <v>0.6383302915973261</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.9844514413488288</v>
+        <v>0.9495394615828145</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5228722668600518</v>
+        <v>0.4915798981116315</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4089482004214465</v>
+        <v>0.4097258261480837</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8669104785450255</v>
+        <v>0.837572562148263</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4474721289472527</v>
+        <v>0.4529601554895991</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3827986011359586</v>
+        <v>0.3838292478809428</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.8021656867341347</v>
+        <v>0.764834544122901</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>2.150560799385668</v>
+        <v>2.228881140274759</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>3.091722469710896</v>
+        <v>3.057680793344609</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>7.800831020961314</v>
+        <v>7.651272725259939</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>7.285996682191112</v>
+        <v>7.537409274615947</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>5.076666116607477</v>
+        <v>5.159124666915345</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>13.02870841845898</v>
+        <v>13.19118549122713</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>5.549575527249776</v>
+        <v>5.304978629300044</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>4.674283788485592</v>
+        <v>4.650977681145337</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>11.10984666839432</v>
+        <v>11.15171187362563</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.725562770126105</v>
+        <v>5.873161474493626</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.74894163396426</v>
+        <v>6.668203083323536</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>11.62602270428649</v>
+        <v>11.79633244132916</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11.68746482335273</v>
+        <v>11.75638295278548</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>9.374087930305334</v>
+        <v>9.37972226000011</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>17.17815230636925</v>
+        <v>17.02927322227879</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>8.577060026472957</v>
+        <v>8.282517064271508</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>7.560872717501672</v>
+        <v>7.535569118906229</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>13.92537702576641</v>
+        <v>14.09377702654206</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>0.3239973177611016</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.6641635334193358</v>
+        <v>0.6641635334193354</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1475603628510829</v>
+        <v>0.1505212661979479</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2079829034990322</v>
+        <v>0.204043776352453</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.5300690996016858</v>
+        <v>0.5231458132225607</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.2892218437141751</v>
+        <v>0.3041069382453951</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.2020824043715079</v>
+        <v>0.2057789036580335</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5168122435118203</v>
+        <v>0.5298403813935531</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2818411555407508</v>
+        <v>0.2693511496184428</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.2329831573456493</v>
+        <v>0.2355401178590462</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.5662435152159154</v>
+        <v>0.5650503243932785</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4302945924920838</v>
+        <v>0.4624737578971002</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5180621002093266</v>
+        <v>0.5122724282163144</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.8853213928548082</v>
+        <v>0.9049922396141252</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5134630918926578</v>
+        <v>0.5243680562672816</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4166769300876279</v>
+        <v>0.4098845057489809</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.7593852329034271</v>
+        <v>0.7528568194297011</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4685697386885468</v>
+        <v>0.448637008045232</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.4116885355518602</v>
+        <v>0.4118770906458431</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.7639721661467586</v>
+        <v>0.7677126636198033</v>
       </c>
     </row>
     <row r="52">
